--- a/biology/Botanique/Senegalia_rugata/Senegalia_rugata.xlsx
+++ b/biology/Botanique/Senegalia_rugata/Senegalia_rugata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senegalia rugata ou som poiest une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Asie tropicale.
 </t>
@@ -511,16 +523,18 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (28 décembre 2018)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (28 décembre 2018)
 Acacia concinna (Willd.) DC.
 Acacia rugata (Lam.) Buch.-Ham. ex Voigt
 Acacia rugata Buch.-Ham. ex Benth.
 Acacia sinuata auct.
 Mimosa concinna Willd.
 Mimosa rugata Lam. (basionyme)
-Senegalia rugata (Lam.) Britton &amp; Rose[3]</t>
+Senegalia rugata (Lam.) Britton &amp; Rose</t>
         </is>
       </c>
     </row>
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes épineuses, dont le port peut être celui d'un petit arbre, ou d'un arbuste grimpant, dont les tiges peuvent atteindre 30 mètres de long[4]. Les feuilles sont de 8-10 cm à 5-10 paires de pennes de 10-15 paires de folioles chacune. Les capitules sont longuement pédonculés, solitaires ou disposés par groupes de 2-4. Les fleurs sont jaunes crème. Les gousses oblongues sont ridées et étranglées entre les graines qui sont noirâtres, arrondies et aplaties de 6-10 mm de long[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes épineuses, dont le port peut être celui d'un petit arbre, ou d'un arbuste grimpant, dont les tiges peuvent atteindre 30 mètres de long. Les feuilles sont de 8-10 cm à 5-10 paires de pennes de 10-15 paires de folioles chacune. Les capitules sont longuement pédonculés, solitaires ou disposés par groupes de 2-4. Les fleurs sont jaunes crème. Les gousses oblongues sont ridées et étranglées entre les graines qui sont noirâtres, arrondies et aplaties de 6-10 mm de long
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gousses de Senegalia rugata, riches en saponines, sont employées en Inde comme substitut du savon (d'où le nom  de soap pod tree donné à la plante). Les jeunes pousses et les feuilles sont consommées comme légumes[4]. Les jeunes pousses et les feuilles sont aussi consommées dans la soupe ou avec du poisson[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gousses de Senegalia rugata, riches en saponines, sont employées en Inde comme substitut du savon (d'où le nom  de soap pod tree donné à la plante). Les jeunes pousses et les feuilles sont consommées comme légumes. Les jeunes pousses et les feuilles sont aussi consommées dans la soupe ou avec du poisson
 </t>
         </is>
       </c>
